--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -1,68 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timer\Desktop\timer-2024-recruit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5880EB-3BB1-4FA9-8497-5D0B503C835D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>投递时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>简历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英伟达</t>
+  </si>
+  <si>
+    <t>Software Intern - Autonomous Vehicles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -71,20 +73,364 @@
       <sz val="22"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -92,28 +438,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -162,7 +800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -197,7 +835,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -371,52 +1009,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>公司</t>
   </si>
@@ -49,6 +49,18 @@
   <si>
     <t>Software Intern - Autonomous Vehicles</t>
   </si>
+  <si>
+    <t>英特尔</t>
+  </si>
+  <si>
+    <t>Software Engineer Intern / Linux内核验证实习生</t>
+  </si>
+  <si>
+    <t>vivo</t>
+  </si>
+  <si>
+    <t>c/c++工程师 嵌入式方向</t>
+  </si>
 </sst>
 </file>
 
@@ -60,7 +72,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +90,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -539,162 +544,165 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1015,13 +1023,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1031,31 +1039,53 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27.75" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>3.04</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>公司</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>c/c++工程师 嵌入式方向</t>
+  </si>
+  <si>
+    <t>特斯拉</t>
+  </si>
+  <si>
+    <t>嵌入式软件开发实习生</t>
   </si>
 </sst>
 </file>
@@ -689,11 +695,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1023,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1039,19 +1048,19 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27.75" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1067,25 +1076,36 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>3.05</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>3.05</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="20010" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>公司</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Software Intern - Autonomous Vehicles</t>
   </si>
   <si>
+    <t>×</t>
+  </si>
+  <si>
     <t>英特尔</t>
   </si>
   <si>
@@ -66,6 +69,12 @@
   </si>
   <si>
     <t>嵌入式软件开发实习生</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>海康威视</t>
   </si>
 </sst>
 </file>
@@ -705,13 +714,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1032,13 +1041,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1064,7 +1073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:3">
+    <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1073,39 +1082,59 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>3.05</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" s="3" customFormat="1" ht="27" customHeight="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
         <v>3.05</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
         <v>3.07</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20010" windowHeight="7950"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>公司</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>海康威视</t>
+  </si>
+  <si>
+    <t>ARM中国</t>
+  </si>
+  <si>
+    <t>GPU软件实习生</t>
   </si>
 </sst>
 </file>
@@ -1041,13 +1047,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1087,7 +1093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:3">
+    <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1096,6 +1102,9 @@
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="27" customHeight="1" spans="1:3">
@@ -1123,18 +1132,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>3.09</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3.12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>公司</t>
   </si>
@@ -44,6 +44,15 @@
     <t>一面</t>
   </si>
   <si>
+    <t>二面</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>岗位性质</t>
+  </si>
+  <si>
     <t>英伟达</t>
   </si>
   <si>
@@ -53,6 +62,9 @@
     <t>×</t>
   </si>
   <si>
+    <t>暑期实习</t>
+  </si>
+  <si>
     <t>英特尔</t>
   </si>
   <si>
@@ -81,6 +93,24 @@
   </si>
   <si>
     <t>GPU软件实习生</t>
+  </si>
+  <si>
+    <t>中兴</t>
+  </si>
+  <si>
+    <t>软件开发实习生</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>驱动固件开发实习生</t>
+  </si>
+  <si>
+    <t>算力大陆</t>
+  </si>
+  <si>
+    <t>日常实习</t>
   </si>
 </sst>
 </file>
@@ -710,20 +740,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1047,116 +1073,191 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>3.04</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" s="2" customFormat="1" ht="28" customHeight="1" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
         <v>3.05</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="27" customHeight="1" spans="1:3">
+    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>3.05</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
+    <row r="5" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>3.07</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>3.09</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="7" s="2" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
         <v>3.12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="24" customHeight="1" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="24" customHeight="1" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.16</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
+    <row r="11" ht="26" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>公司</t>
   </si>
@@ -41,18 +41,27 @@
     <t>简历</t>
   </si>
   <si>
+    <t>笔试</t>
+  </si>
+  <si>
     <t>一面</t>
   </si>
   <si>
     <t>二面</t>
   </si>
   <si>
+    <t>HR面</t>
+  </si>
+  <si>
     <t>结果</t>
   </si>
   <si>
     <t>岗位性质</t>
   </si>
   <si>
+    <t>其他</t>
+  </si>
+  <si>
     <t>英伟达</t>
   </si>
   <si>
@@ -86,9 +95,15 @@
     <t>√</t>
   </si>
   <si>
+    <t>日常实习</t>
+  </si>
+  <si>
     <t>海康威视</t>
   </si>
   <si>
+    <t>oc</t>
+  </si>
+  <si>
     <t>ARM中国</t>
   </si>
   <si>
@@ -110,7 +125,19 @@
     <t>算力大陆</t>
   </si>
   <si>
-    <t>日常实习</t>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>嵌入式系统软件开发实习生</t>
+  </si>
+  <si>
+    <t>CVTE</t>
+  </si>
+  <si>
+    <t>oppo</t>
+  </si>
+  <si>
+    <t>底层软件工程师/系统软件工程师</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1084,12 +1111,13 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="4" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,156 +1136,223 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:9">
+    <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>3.04</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="28" customHeight="1" spans="1:9">
+    <row r="3" s="2" customFormat="1" ht="28" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>3.05</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:9">
+    <row r="4" s="2" customFormat="1" ht="27" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>3.05</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
+    <row r="5" s="2" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>3.07</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
+    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
         <v>3.09</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20" customHeight="1" spans="1:9">
+    <row r="7" s="2" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2">
         <v>3.12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="1:9">
+    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
         <v>3.14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A9" s="4" t="s">
+    <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3">
-        <v>3.15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="24" customHeight="1" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3.16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>27</v>
+    <row r="11" s="2" customFormat="1" ht="26" customHeight="1" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1"/>
+    <row r="12" s="3" customFormat="1" ht="25" customHeight="1" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="25" customHeight="1" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timer\Desktop\timer-2024-recruit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16813B0-7D37-4B1F-95BF-01709523F56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C340983-5640-4AE7-A561-469079656FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="4980" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>公司</t>
   </si>
@@ -150,6 +150,22 @@
   </si>
   <si>
     <t>芯片软件工程师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联发科</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发实习生/嵌入式软件方向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜鸟集团</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软硬件结合开发工程师/嵌入式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +203,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,12 +233,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,6 +706,9 @@
       <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -769,6 +800,34 @@
         <v>41</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>39</v>
       </c>
     </row>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timer\Desktop\timer-2024-recruit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C340983-5640-4AE7-A561-469079656FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157F295A-D257-4A4F-A406-E5A9BCD99AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="4980" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>公司</t>
   </si>
@@ -34,138 +34,267 @@
     <t>简历</t>
   </si>
   <si>
+    <t>一面</t>
+  </si>
+  <si>
+    <t>二面</t>
+  </si>
+  <si>
+    <t>HR面</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>岗位性质</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>英伟达</t>
+  </si>
+  <si>
+    <t>Software Intern - Autonomous Vehicles</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>暑期实习</t>
+  </si>
+  <si>
+    <t>英特尔</t>
+  </si>
+  <si>
+    <t>Software Engineer Intern / Linux内核验证实习生</t>
+  </si>
+  <si>
+    <t>vivo</t>
+  </si>
+  <si>
+    <t>c/c++工程师 嵌入式方向</t>
+  </si>
+  <si>
+    <t>特斯拉</t>
+  </si>
+  <si>
+    <t>嵌入式软件开发实习生</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>日常实习</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>oc</t>
+  </si>
+  <si>
+    <t>ARM中国</t>
+  </si>
+  <si>
+    <t>GPU软件实习生</t>
+  </si>
+  <si>
+    <t>中兴</t>
+  </si>
+  <si>
+    <t>软件开发实习生</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>驱动固件开发实习生</t>
+  </si>
+  <si>
+    <t>算力大陆</t>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>嵌入式系统软件开发实习生</t>
+  </si>
+  <si>
+    <t>CVTE</t>
+  </si>
+  <si>
+    <t>oppo</t>
+  </si>
+  <si>
+    <t>底层软件工程师/系统软件工程师</t>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师-BSP方向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑期实习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里平头哥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片软件工程师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联发科</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发实习生/嵌入式软件方向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜鸟集团</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软硬件结合开发工程师/嵌入式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯云智</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC客户端开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式开发工程师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾赛科技</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>++软件工程师</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式系统软件工程师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常实习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>笔试</t>
-  </si>
-  <si>
-    <t>一面</t>
-  </si>
-  <si>
-    <t>二面</t>
-  </si>
-  <si>
-    <t>HR面</t>
-  </si>
-  <si>
-    <t>结果</t>
-  </si>
-  <si>
-    <t>岗位性质</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>英伟达</t>
-  </si>
-  <si>
-    <t>Software Intern - Autonomous Vehicles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>×</t>
-  </si>
-  <si>
-    <t>暑期实习</t>
-  </si>
-  <si>
-    <t>英特尔</t>
-  </si>
-  <si>
-    <t>Software Engineer Intern / Linux内核验证实习生</t>
-  </si>
-  <si>
-    <t>vivo</t>
-  </si>
-  <si>
-    <t>c/c++工程师 嵌入式方向</t>
-  </si>
-  <si>
-    <t>特斯拉</t>
-  </si>
-  <si>
-    <t>嵌入式软件开发实习生</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>日常实习</t>
-  </si>
-  <si>
-    <t>海康威视</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统工程实习生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>oc</t>
-  </si>
-  <si>
-    <t>ARM中国</t>
-  </si>
-  <si>
-    <t>GPU软件实习生</t>
-  </si>
-  <si>
-    <t>中兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩智浦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PU软件实习生</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>零跑汽车</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统软件工程师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>软件开发实习生</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>驱动固件开发实习生</t>
-  </si>
-  <si>
-    <t>算力大陆</t>
-  </si>
-  <si>
-    <t>美团</t>
-  </si>
-  <si>
-    <t>嵌入式系统软件开发实习生</t>
-  </si>
-  <si>
-    <t>CVTE</t>
-  </si>
-  <si>
-    <t>oppo</t>
-  </si>
-  <si>
-    <t>底层软件工程师/系统软件工程师</t>
-  </si>
-  <si>
-    <t>小米</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件开发工程师-BSP方向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暑期实习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里平头哥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯片软件工程师</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>联发科</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件开发实习生/嵌入式软件方向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜鸟集团</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>软硬件结合开发工程师/嵌入式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬恒润</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件实习生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格灵深瞳</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +341,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +380,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,24 +663,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,294 +691,475 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>3.04</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>3.05</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>3.05</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>3.07</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B6" s="2">
         <v>3.09</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B7" s="2">
         <v>3.12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="2">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B11" s="2">
-        <v>3.19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2">
         <v>3.22</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3.23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3.24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2">
-        <v>3.26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3.27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B17" s="2">
         <v>3.27</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>39</v>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="J19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="J23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timer\Desktop\timer-2024-recruit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157F295A-D257-4A4F-A406-E5A9BCD99AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4979CD-3D81-465F-A46F-A12A2A7A4C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="93">
   <si>
     <t>公司</t>
   </si>
@@ -195,24 +195,6 @@
   </si>
   <si>
     <t>禾赛科技</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>++软件工程师</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -295,6 +277,97 @@
   </si>
   <si>
     <t>格灵深瞳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式软件开发实习生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹软科技</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式应用开发实习生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶晨半导体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>video嵌入式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固件开发实习生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式软件开发实习生/数通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没做</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++软件工程师/重庆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递渠道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国微电子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字模型开发工程师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商汤科技</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人应用软件开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>足下科技</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++开发实习生</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -663,25 +736,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -715,8 +791,11 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -732,8 +811,11 @@
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -749,8 +831,11 @@
       <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -766,8 +851,11 @@
       <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -786,8 +874,11 @@
       <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -812,8 +903,11 @@
       <c r="J6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -829,8 +923,11 @@
       <c r="J7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -840,11 +937,17 @@
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -863,8 +966,11 @@
       <c r="J9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -878,21 +984,24 @@
         <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2">
         <v>3.21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>47</v>
@@ -903,8 +1012,11 @@
       <c r="J11" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
@@ -912,7 +1024,7 @@
         <v>3.22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>47</v>
@@ -924,13 +1036,16 @@
         <v>47</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -946,8 +1061,11 @@
       <c r="J13" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -960,8 +1078,11 @@
       <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -977,8 +1098,11 @@
       <c r="J15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -989,14 +1113,17 @@
         <v>40</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
+      <c r="E16" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
@@ -1010,8 +1137,11 @@
       <c r="J17" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1021,12 +1151,20 @@
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="J18" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1040,8 +1178,11 @@
       <c r="J19" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1055,8 +1196,11 @@
       <c r="J20" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -1070,8 +1214,11 @@
       <c r="J21" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -1085,76 +1232,258 @@
       <c r="J22" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2"/>
       <c r="J23" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="J25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4.12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3">
         <v>4.12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4.17</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4.18</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4.22</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="99">
   <si>
     <t>实习</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>深圳</t>
+  </si>
+  <si>
+    <t>速腾聚创</t>
+  </si>
+  <si>
+    <t>嵌入式软件工程师</t>
+  </si>
+  <si>
+    <t>韶音科技</t>
   </si>
 </sst>
 </file>
@@ -987,7 +996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -996,29 +1005,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,10 +1343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1365,18 +1368,18 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="27.75" spans="1:13">
       <c r="A2" s="2" t="s">
@@ -1971,13 +1974,13 @@
       <c r="A27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -2125,10 +2128,10 @@
       <c r="C34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -2167,10 +2170,10 @@
       <c r="C36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -2184,51 +2187,50 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1" ht="56" customHeight="1" spans="1:13">
-      <c r="A37" s="10" t="s">
+    <row r="37" s="3" customFormat="1" ht="56" customHeight="1" spans="1:13">
+      <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>4.26</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10" t="s">
+      <c r="J37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" s="5" customFormat="1" ht="42" customHeight="1" spans="1:13">
-      <c r="A38" s="11" t="s">
+    <row r="38" s="4" customFormat="1" ht="42" customHeight="1" spans="1:13">
+      <c r="A38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" s="4" customFormat="1" ht="36" customHeight="1" spans="1:13">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="36" customHeight="1" spans="1:13">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -2269,27 +2271,66 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1" ht="36" customHeight="1" spans="1:13">
-      <c r="A40" s="10" t="s">
+    <row r="40" s="3" customFormat="1" ht="36" customHeight="1" spans="1:13">
+      <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>5.28</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M40" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" ht="24" customHeight="1"/>
+      <c r="M40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" s="5" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A41" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" s="5" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A42" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timer\Desktop\timer-2024-recruit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93A4C93-9E2C-4F79-B941-E297F3626413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="116">
   <si>
     <t>实习</t>
   </si>
@@ -346,18 +339,80 @@
   <si>
     <t>韶音科技</t>
   </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐鑫科技</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式软件开发工程师/驱动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式批</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元戎启行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式软件工程师</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>信步科技</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式软件开发工程师</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前批</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大疆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式工程师</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺瓦星云</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式软件工程师（芯片验证）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾赛科技</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,56 +453,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -455,94 +461,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,188 +487,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -750,253 +496,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1006,80 +510,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1337,51 +794,51 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="13" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="27.75" spans="1:13">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1422,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1442,7 +899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="27.95" customHeight="1" spans="1:13">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1462,7 +919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="27" customHeight="1" spans="1:13">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1482,7 +939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="24" customHeight="1" spans="1:13">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1505,7 +962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="30" customHeight="1" spans="1:13">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1537,7 +994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="27" customHeight="1" spans="1:13">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1557,7 +1014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="28.5" customHeight="1" spans="1:13">
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1577,7 +1034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="29.25" customHeight="1" spans="1:13">
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1606,7 +1063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1629,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1667,7 +1124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1699,7 +1156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="26.25" customHeight="1" spans="1:13">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1719,7 +1176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:13">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1736,7 +1193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:13">
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1756,7 +1213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="30.75" customHeight="1" spans="1:13">
+    <row r="17" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -1778,7 +1235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="30.75" customHeight="1" spans="1:13">
+    <row r="18" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -1797,7 +1254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" ht="29.25" customHeight="1" spans="1:13">
+    <row r="19" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -1821,7 +1278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="29.25" customHeight="1" spans="1:13">
+    <row r="20" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1840,7 +1297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" ht="33" customHeight="1" spans="1:13">
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1859,7 +1316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" ht="27" customHeight="1" spans="1:13">
+    <row r="22" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -1878,7 +1335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="35.25" customHeight="1" spans="1:13">
+    <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
@@ -1897,12 +1354,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" ht="35.25" customHeight="1" spans="1:13">
+    <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>65</v>
@@ -1916,12 +1373,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="29.25" customHeight="1" spans="1:13">
+    <row r="25" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>67</v>
@@ -1934,7 +1391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" ht="29.25" customHeight="1" spans="1:13">
+    <row r="26" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>68</v>
       </c>
@@ -1970,17 +1427,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" ht="33" customHeight="1" spans="1:13">
+    <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -1991,7 +1448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" ht="28.9" customHeight="1" spans="1:13">
+    <row r="28" spans="1:13" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
@@ -2009,7 +1466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" ht="24" customHeight="1" spans="1:13">
+    <row r="29" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
@@ -2027,12 +1484,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" ht="27.75" customHeight="1" spans="1:13">
+    <row r="30" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="3">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>24</v>
@@ -2045,7 +1502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" ht="29.25" customHeight="1" spans="1:13">
+    <row r="31" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -2063,7 +1520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" ht="29.25" customHeight="1" spans="1:13">
+    <row r="32" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>79</v>
       </c>
@@ -2087,7 +1544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" ht="29.25" customHeight="1" spans="1:13">
+    <row r="33" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>81</v>
       </c>
@@ -2118,7 +1575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="24" customHeight="1" spans="1:13">
+    <row r="34" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -2128,10 +1585,10 @@
       <c r="C34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -2142,7 +1599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" ht="36" customHeight="1" spans="1:13">
+    <row r="35" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>85</v>
       </c>
@@ -2160,7 +1617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" ht="39.75" customHeight="1" spans="1:13">
+    <row r="36" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>87</v>
       </c>
@@ -2170,10 +1627,10 @@
       <c r="C36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="D36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -2187,7 +1644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="56" customHeight="1" spans="1:13">
+    <row r="37" spans="1:13" s="3" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
@@ -2213,24 +1670,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1" ht="42" customHeight="1" spans="1:13">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" s="3" customFormat="1" ht="36" customHeight="1" spans="1:13">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -2271,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" ht="36" customHeight="1" spans="1:13">
+    <row r="40" spans="1:13" s="3" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
@@ -2281,6 +1738,9 @@
       <c r="C40" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="E40" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="J40" s="3" t="s">
         <v>94</v>
       </c>
@@ -2291,53 +1751,180 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" s="5" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>6.4</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="E41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M41" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" s="5" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A42" s="10" t="s">
+      <c r="M41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>6.4</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="E42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="M42" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A38:M38"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timer\Desktop\timer-2024-recruit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93A4C93-9E2C-4F79-B941-E297F3626413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="14088"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="126">
   <si>
     <t>实习</t>
   </si>
@@ -340,79 +347,99 @@
     <t>韶音科技</t>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>乐鑫科技</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>嵌入式软件开发工程师/驱动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>正式批</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>上海</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>元戎启行</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌入式软件工程师</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>信步科技</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>嵌入式软件开发工程师</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前批</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大疆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>嵌入式工程师</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>诺瓦星云</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>嵌入式软件工程师（芯片验证）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>禾赛科技</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+  </si>
+  <si>
+    <t>Linux操作系统研发工程师</t>
+  </si>
+  <si>
+    <t>传音</t>
+  </si>
+  <si>
+    <t>软件系统开发工程师</t>
+  </si>
+  <si>
+    <t>系统工程师</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>软件开发工程师/智算 os工具方向</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>文远知行</t>
+  </si>
+  <si>
+    <t>自动驾驶平台开发工程师</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>影石360</t>
+  </si>
+  <si>
+    <t>拓竹科技</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>嵌入式软件设计工程师</t>
+  </si>
+  <si>
+    <t>西安</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,7 +480,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -461,14 +537,94 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,8 +643,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -496,11 +832,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -510,33 +1088,89 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -794,34 +1428,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="13" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="12.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="15.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
+    <col min="12" max="13" width="18.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -838,7 +1472,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="1" ht="28.2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -879,7 +1513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -899,7 +1533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" s="3" customFormat="1" ht="27.9" customHeight="1" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -919,7 +1553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" s="3" customFormat="1" ht="27" customHeight="1" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -939,7 +1573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" s="3" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -962,7 +1596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" s="3" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -994,7 +1628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" s="3" customFormat="1" ht="27" customHeight="1" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1014,7 +1648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" s="3" customFormat="1" ht="28.5" customHeight="1" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1034,7 +1668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" s="3" customFormat="1" ht="29.25" customHeight="1" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1063,7 +1697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1086,7 +1720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1124,7 +1758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1156,7 +1790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" s="3" customFormat="1" ht="26.25" customHeight="1" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1176,7 +1810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" s="3" customFormat="1" ht="24.9" customHeight="1" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1193,7 +1827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1213,7 +1847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="30.75" customHeight="1" spans="1:13">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -1235,7 +1869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="30.75" customHeight="1" spans="1:13">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -1254,7 +1888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="29.25" customHeight="1" spans="1:13">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -1278,7 +1912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="29.25" customHeight="1" spans="1:13">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1297,7 +1931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="33" customHeight="1" spans="1:13">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1316,7 +1950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="27" customHeight="1" spans="1:13">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -1335,7 +1969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="35.25" customHeight="1" spans="1:13">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
@@ -1354,12 +1988,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="35.25" customHeight="1" spans="1:13">
       <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>65</v>
@@ -1373,12 +2007,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="29.25" customHeight="1" spans="1:13">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>67</v>
@@ -1391,7 +2025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="29.25" customHeight="1" spans="1:13">
       <c r="A26" s="3" t="s">
         <v>68</v>
       </c>
@@ -1427,17 +2061,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="33" customHeight="1" spans="1:13">
       <c r="A27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -1448,7 +2082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="28.95" customHeight="1" spans="1:13">
       <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
@@ -1466,7 +2100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="24" customHeight="1" spans="1:13">
       <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
@@ -1484,12 +2118,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="27.75" customHeight="1" spans="1:13">
       <c r="A30" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="3">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>24</v>
@@ -1502,7 +2136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="29.25" customHeight="1" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -1520,7 +2154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="39" customHeight="1" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>79</v>
       </c>
@@ -1544,7 +2178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="39" customHeight="1" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>81</v>
       </c>
@@ -1575,7 +2209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="30" customHeight="1" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -1585,10 +2219,10 @@
       <c r="C34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -1599,7 +2233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="36" customHeight="1" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>85</v>
       </c>
@@ -1617,7 +2251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="39.75" customHeight="1" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>87</v>
       </c>
@@ -1627,10 +2261,10 @@
       <c r="C36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -1644,7 +2278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="3" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" s="3" customFormat="1" ht="41" customHeight="1" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
@@ -1670,24 +2304,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+    <row r="38" s="4" customFormat="1" ht="42" customHeight="1" spans="1:13">
+      <c r="A38" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="1:13" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="36" customHeight="1" spans="1:13">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -1728,7 +2362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="3" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" s="3" customFormat="1" ht="31.8" customHeight="1" spans="1:13">
       <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
@@ -1739,7 +2373,7 @@
         <v>93</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>94</v>
@@ -1751,7 +2385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" s="3" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A41" s="3" t="s">
         <v>96</v>
       </c>
@@ -1762,7 +2396,7 @@
         <v>97</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>94</v>
@@ -1774,7 +2408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" s="3" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A42" s="3" t="s">
         <v>98</v>
       </c>
@@ -1785,7 +2419,7 @@
         <v>63</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>94</v>
@@ -1797,134 +2431,345 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="22.2" customHeight="1" spans="1:13">
       <c r="A43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="3">
         <v>7.6</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="22" customHeight="1" spans="1:13">
+      <c r="A44" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="B44" s="3">
         <v>7.6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="1:13">
+      <c r="A45" s="3" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="B45" s="3">
         <v>7.6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" ht="18.6" customHeight="1" spans="1:13">
       <c r="A46" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B46" s="3">
         <v>7.6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="22.2" customHeight="1" spans="1:13">
       <c r="A47" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B47" s="3">
         <v>7.6</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" ht="22.8" customHeight="1" spans="1:13">
+      <c r="A48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" s="5" customFormat="1" ht="20" customHeight="1" spans="1:13">
+      <c r="A49" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="5">
+        <v>7.13</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="27" customHeight="1" spans="1:13">
+      <c r="A50" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="B50" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" ht="25" customHeight="1" spans="1:13">
+      <c r="A51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" ht="20" customHeight="1" spans="1:13">
+      <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="9">
-        <v>7.6</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" ht="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B52" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" ht="22" customHeight="1" spans="1:13">
+      <c r="A54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="3">
+        <v>7.14</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" s="6" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A55" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="13">
+        <v>7.19</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" s="6" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A56" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" s="6" customFormat="1" ht="19" customHeight="1" spans="1:13">
+      <c r="A57" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" s="6" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A58" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A38:M38"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="14088"/>
+    <workbookView windowWidth="30720" windowHeight="16008"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="180">
   <si>
     <t>实习</t>
   </si>
@@ -326,6 +326,12 @@
     <t>秋招</t>
   </si>
   <si>
+    <t>三面</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
     <t>TPlink</t>
   </si>
   <si>
@@ -395,7 +401,10 @@
     <t>系统工程师</t>
   </si>
   <si>
-    <t>汇川技术</t>
+    <t>汇川联合动力</t>
+  </si>
+  <si>
+    <t>先HR面</t>
   </si>
   <si>
     <t>软件开发工程师/智算 os工具方向</t>
@@ -404,6 +413,12 @@
     <t>成都</t>
   </si>
   <si>
+    <t>卓驭</t>
+  </si>
+  <si>
+    <t>嵌入式中间件</t>
+  </si>
+  <si>
     <t>文远知行</t>
   </si>
   <si>
@@ -416,6 +431,9 @@
     <t>影石360</t>
   </si>
   <si>
+    <t>音视频组</t>
+  </si>
+  <si>
     <t>拓竹科技</t>
   </si>
   <si>
@@ -426,6 +444,150 @@
   </si>
   <si>
     <t>西安</t>
+  </si>
+  <si>
+    <t>蔚来</t>
+  </si>
+  <si>
+    <t>智能座舱系统开发工程师</t>
+  </si>
+  <si>
+    <t>二面挂</t>
+  </si>
+  <si>
+    <t>南京/上海</t>
+  </si>
+  <si>
+    <t>嵌入式算法/云台嵌入式</t>
+  </si>
+  <si>
+    <t>Linux软件开发工程师</t>
+  </si>
+  <si>
+    <t>MPU Systems Engineer</t>
+  </si>
+  <si>
+    <t>操作系统研究员</t>
+  </si>
+  <si>
+    <t>未来星</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>硬件开发工程师(嵌入式系统软件开发方向)</t>
+  </si>
+  <si>
+    <t>寒武纪</t>
+  </si>
+  <si>
+    <t>系统软件开发工程师</t>
+  </si>
+  <si>
+    <t>芯动科技</t>
+  </si>
+  <si>
+    <t>GPU软件开发工程师</t>
+  </si>
+  <si>
+    <t>放弃笔试</t>
+  </si>
+  <si>
+    <t>卡尔动力</t>
+  </si>
+  <si>
+    <t>自动驾驶嵌入式软件开发工程师</t>
+  </si>
+  <si>
+    <t>滴滴自动驾驶孵化</t>
+  </si>
+  <si>
+    <t>小鹏机器人</t>
+  </si>
+  <si>
+    <t>一面挂</t>
+  </si>
+  <si>
+    <t>社招</t>
+  </si>
+  <si>
+    <t>旷视科技</t>
+  </si>
+  <si>
+    <t>自动驾驶性能优化工程师</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>BSP驱动工程师/SOC 软件验证工程师</t>
+  </si>
+  <si>
+    <t>地平线</t>
+  </si>
+  <si>
+    <t>嵌入式系统软件工程师</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>算能科技</t>
+  </si>
+  <si>
+    <t>自动驾驶软件工程师</t>
+  </si>
+  <si>
+    <t>小马智行</t>
+  </si>
+  <si>
+    <t>研发工程师/工程</t>
+  </si>
+  <si>
+    <t>联影医疗</t>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>底层软件研发工程师</t>
+  </si>
+  <si>
+    <t>汇顶科技</t>
+  </si>
+  <si>
+    <t>MPS</t>
+  </si>
+  <si>
+    <t>2012中央硬件研究院</t>
+  </si>
+  <si>
+    <t>服务器软硬件结合工程师</t>
+  </si>
+  <si>
+    <t>软件开发工程师（嵌入式）</t>
+  </si>
+  <si>
+    <t>恒玄科技</t>
+  </si>
+  <si>
+    <t>TPlink-普联</t>
+  </si>
+  <si>
+    <t>传音控股</t>
+  </si>
+  <si>
+    <t>助理软件系统开发工程师（内核性能）</t>
+  </si>
+  <si>
+    <t>芯驰科技</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1088,28 +1250,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1434,10 +1587,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1448,14 +1601,16 @@
     <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="12.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="15.8888888888889" customWidth="1"/>
-    <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
-    <col min="12" max="13" width="18.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
+    <col min="8" max="9" width="10.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="15.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="21.8888888888889" customWidth="1"/>
+    <col min="13" max="14" width="18.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="17.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1471,8 +1626,9 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="28.2" spans="1:13">
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="28.2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1494,26 +1650,26 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:13">
+    <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1526,14 +1682,14 @@
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="27.9" customHeight="1" spans="1:13">
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="27.9" customHeight="1" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1546,14 +1702,14 @@
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="27" customHeight="1" spans="1:13">
+      <c r="N4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1566,14 +1722,14 @@
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="N5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1589,14 +1745,14 @@
       <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="30" customHeight="1" spans="1:13">
+    <row r="7" s="3" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1612,23 +1768,23 @@
       <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="27" customHeight="1" spans="1:13">
+    <row r="8" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1641,14 +1797,14 @@
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="28.5" customHeight="1" spans="1:13">
+      <c r="N8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="28.5" customHeight="1" spans="1:14">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1661,14 +1817,14 @@
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="29.25" customHeight="1" spans="1:13">
+      <c r="N9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="29.25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1684,20 +1840,20 @@
       <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
+    <row r="11" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:14">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1713,14 +1869,14 @@
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
+      <c r="N11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1742,23 +1898,23 @@
       <c r="G12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:13">
+    <row r="13" s="3" customFormat="1" ht="32" customHeight="1" spans="1:14">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1777,20 +1933,20 @@
       <c r="F13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="26.25" customHeight="1" spans="1:13">
+    <row r="14" s="3" customFormat="1" ht="26.25" customHeight="1" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1803,14 +1959,14 @@
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="24.9" customHeight="1" spans="1:13">
+      <c r="N14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="24.9" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1820,14 +1976,14 @@
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:13">
+      <c r="N15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1840,14 +1996,14 @@
       <c r="E16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" ht="30.75" customHeight="1" spans="1:13">
+      <c r="N16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="30.75" customHeight="1" spans="1:14">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -1861,15 +2017,15 @@
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" ht="30.75" customHeight="1" spans="1:13">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="30.75" customHeight="1" spans="1:14">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -1880,15 +2036,15 @@
         <v>52</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="29.25" customHeight="1" spans="1:13">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="29.25" customHeight="1" spans="1:14">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -1904,15 +2060,15 @@
       <c r="E19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="29.25" customHeight="1" spans="1:13">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="29.25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1923,15 +2079,15 @@
         <v>57</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="33" customHeight="1" spans="1:13">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="1:14">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1942,15 +2098,15 @@
         <v>59</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" ht="27" customHeight="1" spans="1:13">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:14">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -1961,15 +2117,15 @@
         <v>61</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="35.25" customHeight="1" spans="1:13">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="35.25" customHeight="1" spans="1:14">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
@@ -1980,15 +2136,15 @@
         <v>63</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" ht="35.25" customHeight="1" spans="1:13">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="35.25" customHeight="1" spans="1:14">
       <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
@@ -1999,15 +2155,15 @@
         <v>65</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" ht="29.25" customHeight="1" spans="1:13">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="29.25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2017,15 +2173,15 @@
       <c r="C25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" ht="29.25" customHeight="1" spans="1:13">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="29.25" customHeight="1" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>68</v>
       </c>
@@ -2044,24 +2200,25 @@
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" ht="33" customHeight="1" spans="1:13">
+    <row r="27" ht="33" customHeight="1" spans="1:14">
       <c r="A27" s="3" t="s">
         <v>70</v>
       </c>
@@ -2071,18 +2228,21 @@
       <c r="C27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="E27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" ht="28.95" customHeight="1" spans="1:13">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="28.95" customHeight="1" spans="1:14">
       <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
@@ -2092,15 +2252,15 @@
       <c r="C28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="1:13">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="1:14">
       <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
@@ -2110,15 +2270,15 @@
       <c r="C29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" ht="27.75" customHeight="1" spans="1:13">
+    <row r="30" ht="27.75" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>76</v>
       </c>
@@ -2128,15 +2288,15 @@
       <c r="C30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" ht="29.25" customHeight="1" spans="1:13">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="29.25" customHeight="1" spans="1:14">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -2146,15 +2306,15 @@
       <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" ht="39" customHeight="1" spans="1:13">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="39" customHeight="1" spans="1:14">
       <c r="A32" s="3" t="s">
         <v>79</v>
       </c>
@@ -2170,15 +2330,15 @@
       <c r="E32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" ht="39" customHeight="1" spans="1:13">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" ht="39" customHeight="1" spans="1:14">
       <c r="A33" s="3" t="s">
         <v>81</v>
       </c>
@@ -2195,21 +2355,21 @@
       <c r="F33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="30" customHeight="1" spans="1:13">
+    <row r="34" ht="30" customHeight="1" spans="1:14">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -2219,21 +2379,21 @@
       <c r="C34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="3" t="s">
+      <c r="E34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" ht="36" customHeight="1" spans="1:13">
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" ht="36" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
         <v>85</v>
       </c>
@@ -2243,15 +2403,15 @@
       <c r="C35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" ht="39.75" customHeight="1" spans="1:13">
+    <row r="36" ht="39.75" customHeight="1" spans="1:14">
       <c r="A36" s="3" t="s">
         <v>87</v>
       </c>
@@ -2261,24 +2421,24 @@
       <c r="C36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="41" customHeight="1" spans="1:13">
+    <row r="37" s="3" customFormat="1" ht="41" customHeight="1" spans="1:14">
       <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
@@ -2297,31 +2457,32 @@
       <c r="F37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1" ht="42" customHeight="1" spans="1:13">
-      <c r="A38" s="10" t="s">
+    <row r="38" s="4" customFormat="1" ht="42" customHeight="1" spans="1:14">
+      <c r="A38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-    </row>
-    <row r="39" s="3" customFormat="1" ht="36" customHeight="1" spans="1:13">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -2344,73 +2505,79 @@
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="31.8" customHeight="1" spans="1:13">
+      <c r="O39" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="31.8" customHeight="1" spans="1:14">
       <c r="A40" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B40" s="3">
         <v>5.28</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>95</v>
+      <c r="K40" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" s="3" customFormat="1" ht="24" customHeight="1" spans="1:13">
+        <v>97</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A41" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B41" s="3">
         <v>6.4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>95</v>
+      <c r="K41" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" s="3" customFormat="1" ht="21" customHeight="1" spans="1:13">
+        <v>97</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
       <c r="A42" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B42" s="3">
         <v>6.4</v>
@@ -2421,123 +2588,141 @@
       <c r="E42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>95</v>
+      <c r="K42" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" ht="22.2" customHeight="1" spans="1:13">
+        <v>97</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" ht="22.2" customHeight="1" spans="1:14">
       <c r="A43" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B43" s="3">
         <v>7.6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L43" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="K43" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="M43" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" ht="22" customHeight="1" spans="1:13">
+        <v>104</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="22" customHeight="1" spans="1:14">
       <c r="A44" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B44" s="3">
         <v>7.6</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="1:13">
+      <c r="N44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="1:14">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B45" s="3">
         <v>7.6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" ht="18.6" customHeight="1" spans="1:13">
+        <v>97</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" ht="18.6" customHeight="1" spans="1:14">
       <c r="A46" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B46" s="3">
         <v>7.6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>95</v>
+        <v>109</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" ht="22.2" customHeight="1" spans="1:13">
+        <v>97</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="22.2" customHeight="1" spans="1:14">
       <c r="A47" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B47" s="3">
         <v>7.6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>95</v>
+        <v>109</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" ht="22.8" customHeight="1" spans="1:13">
+        <v>97</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" s="5" customFormat="1" ht="22.8" customHeight="1" spans="1:14">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -2545,56 +2730,68 @@
         <v>7.6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" s="5" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A49" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="5">
+        <v>104</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" s="6" customFormat="1" ht="26" customHeight="1" spans="1:14">
+      <c r="A49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="6">
         <v>7.13</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" s="3" customFormat="1" ht="27" customHeight="1" spans="1:13">
+      <c r="C49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
       <c r="A50" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B50" s="3">
         <v>7.13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" s="3" customFormat="1" ht="25" customHeight="1" spans="1:13">
+        <v>115</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
@@ -2602,42 +2799,66 @@
         <v>7.13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>95</v>
+        <v>116</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" s="3" customFormat="1" ht="20" customHeight="1" spans="1:13">
+        <v>97</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
       <c r="A52" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B52" s="3">
         <v>7.13</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" s="3" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="N52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -2645,128 +2866,847 @@
         <v>7.13</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" s="3" customFormat="1" ht="22" customHeight="1" spans="1:13">
+        <v>120</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
       <c r="A54" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B54" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+      <c r="A55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="3">
         <v>7.14</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="C55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L54" s="3" t="s">
+      <c r="K55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A56" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="10">
+        <v>7.19</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+      <c r="A58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" ht="20" customHeight="1" spans="1:14">
+      <c r="A60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="3">
+        <v>7.27</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="A61" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="3">
+        <v>7.27</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+      <c r="A63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M63" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" s="6" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A55" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="13">
-        <v>7.19</v>
-      </c>
-      <c r="C55" s="12" t="s">
+      <c r="N63" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" s="3" customFormat="1" ht="20" customHeight="1" spans="1:14">
+      <c r="A64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="3">
+        <v>7.31</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M66" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L55" s="12" t="s">
+      <c r="N66" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A67" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="3">
+        <v>7.31</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="A68" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="3">
+        <v>7.31</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A69" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="3">
+        <v>7.31</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="1" ht="23" customHeight="1" spans="1:14">
+      <c r="A70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+      <c r="A71" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M55" s="12" t="s">
+      <c r="E71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N71" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" s="6" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A56" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="C56" s="12" t="s">
+    <row r="72" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+      <c r="A72" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="3">
+        <v>8.8</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A74" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+      <c r="A75" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M75" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M56" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" s="6" customFormat="1" ht="19" customHeight="1" spans="1:13">
-      <c r="A57" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="C57" s="12" t="s">
+      <c r="N75" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" s="3" customFormat="1" ht="15" customHeight="1" spans="1:14">
+      <c r="A76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M76" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M57" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" s="6" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A58" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L58" s="12" t="s">
+      <c r="N76" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+      <c r="A77" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M77" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M58" s="12" t="s">
+      <c r="N77" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+      <c r="A78" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" s="3" customFormat="1" ht="20" customHeight="1" spans="1:14">
+      <c r="A79" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+      <c r="A80" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+      <c r="A81" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="A82" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3">
+        <v>8.11</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
+      <c r="A83" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="3">
+        <v>8.11</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+      <c r="A84" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="3">
+        <v>8.19</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
+      <c r="A85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="3">
+        <v>8.19</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+      <c r="A86" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="3">
+        <v>8.19</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" s="3" customFormat="1" ht="16" customHeight="1" spans="1:14">
+      <c r="A87" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="3">
+        <v>8.19</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
+      <c r="A88" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="3">
+        <v>8.19</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" s="3" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A89" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="3">
+        <v>8.19</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N89" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A38:N38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="16008"/>
+    <workbookView windowWidth="30720" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="205">
   <si>
     <t>实习</t>
   </si>
@@ -329,6 +329,9 @@
     <t>三面</t>
   </si>
   <si>
+    <t>四面</t>
+  </si>
+  <si>
     <t>属性</t>
   </si>
   <si>
@@ -368,6 +371,9 @@
     <t>元戎启行</t>
   </si>
   <si>
+    <t>三面挂</t>
+  </si>
+  <si>
     <t>信步科技</t>
   </si>
   <si>
@@ -380,9 +386,15 @@
     <t>嵌入式工程师</t>
   </si>
   <si>
+    <t>复筛挂</t>
+  </si>
+  <si>
     <t>诺瓦星云</t>
   </si>
   <si>
+    <t>一面挂</t>
+  </si>
+  <si>
     <t>嵌入式软件工程师（芯片验证）</t>
   </si>
   <si>
@@ -404,7 +416,7 @@
     <t>汇川联合动力</t>
   </si>
   <si>
-    <t>先HR面</t>
+    <t>拒了三面</t>
   </si>
   <si>
     <t>软件开发工程师/智算 os工具方向</t>
@@ -455,6 +467,9 @@
     <t>二面挂</t>
   </si>
   <si>
+    <t>sb公司</t>
+  </si>
+  <si>
     <t>南京/上海</t>
   </si>
   <si>
@@ -464,6 +479,9 @@
     <t>Linux软件开发工程师</t>
   </si>
   <si>
+    <t>拒绝三面</t>
+  </si>
+  <si>
     <t>MPU Systems Engineer</t>
   </si>
   <si>
@@ -500,15 +518,15 @@
     <t>自动驾驶嵌入式软件开发工程师</t>
   </si>
   <si>
+    <t>拒了面试</t>
+  </si>
+  <si>
     <t>滴滴自动驾驶孵化</t>
   </si>
   <si>
     <t>小鹏机器人</t>
   </si>
   <si>
-    <t>一面挂</t>
-  </si>
-  <si>
     <t>社招</t>
   </si>
   <si>
@@ -588,6 +606,63 @@
   </si>
   <si>
     <t>芯驰科技</t>
+  </si>
+  <si>
+    <t>拒了笔试</t>
+  </si>
+  <si>
+    <t>realme</t>
+  </si>
+  <si>
+    <t>软件工程师/c c++</t>
+  </si>
+  <si>
+    <t>TPlink联洲</t>
+  </si>
+  <si>
+    <t>平头哥</t>
+  </si>
+  <si>
+    <t>新凯来</t>
+  </si>
+  <si>
+    <t>豪威科技</t>
+  </si>
+  <si>
+    <t>系统设计与验证工程师</t>
+  </si>
+  <si>
+    <t>美的</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>软件研发工程师</t>
+  </si>
+  <si>
+    <t>赛力斯</t>
+  </si>
+  <si>
+    <t>底层软件工程师</t>
+  </si>
+  <si>
+    <t>camera os 软件</t>
+  </si>
+  <si>
+    <t>mometa</t>
+  </si>
+  <si>
+    <t>中间件开发</t>
+  </si>
+  <si>
+    <t>理想</t>
+  </si>
+  <si>
+    <t>长安汽车</t>
+  </si>
+  <si>
+    <t>软件设计开发</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1249,13 +1324,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,7 +1340,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1587,30 +1671,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="12.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="17.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.4416666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.8916666666667" customWidth="1"/>
     <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
-    <col min="8" max="9" width="10.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="21.8888888888889" customWidth="1"/>
-    <col min="13" max="14" width="18.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="17.287037037037" customWidth="1"/>
+    <col min="8" max="10" width="10.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="11.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="15.8916666666667" customWidth="1"/>
+    <col min="13" max="13" width="21.8916666666667" customWidth="1"/>
+    <col min="14" max="15" width="18.3333333333333" customWidth="1"/>
+    <col min="16" max="16" width="17.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1627,8 +1711,9 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="28.2" spans="1:14">
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27.5" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1650,26 +1735,26 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:14">
+    <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1682,14 +1767,14 @@
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="27.9" customHeight="1" spans="1:14">
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="27.9" customHeight="1" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1702,14 +1787,14 @@
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
+      <c r="O4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1722,14 +1807,14 @@
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
+      <c r="O5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1745,46 +1830,46 @@
       <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="30" customHeight="1" spans="1:14">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="4" customFormat="1" ht="30" customHeight="1" spans="1:15">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>3.09</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
+    <row r="8" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1797,14 +1882,14 @@
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="28.5" customHeight="1" spans="1:14">
+      <c r="O8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="28.5" customHeight="1" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1817,43 +1902,43 @@
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="29.25" customHeight="1" spans="1:14">
-      <c r="A10" s="3" t="s">
+      <c r="O9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="29.25" customHeight="1" spans="1:15">
+      <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>3.16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:14">
+    <row r="11" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1869,84 +1954,84 @@
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="26.1" customHeight="1" spans="1:14">
-      <c r="A12" s="3" t="s">
+      <c r="O11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="26.1" customHeight="1" spans="1:15">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>3.21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="32" customHeight="1" spans="1:14">
-      <c r="A13" s="3" t="s">
+    <row r="13" s="4" customFormat="1" ht="32" customHeight="1" spans="1:15">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>3.22</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="26.25" customHeight="1" spans="1:14">
+    <row r="14" s="3" customFormat="1" ht="26.25" customHeight="1" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1959,14 +2044,14 @@
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="24.9" customHeight="1" spans="1:14">
+      <c r="O14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="24.9" customHeight="1" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1976,14 +2061,14 @@
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:14">
+      <c r="O15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1996,14 +2081,14 @@
       <c r="E16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" ht="30.75" customHeight="1" spans="1:14">
+      <c r="O16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="30.75" customHeight="1" spans="1:15">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -2017,15 +2102,15 @@
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" ht="30.75" customHeight="1" spans="1:14">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="30.75" customHeight="1" spans="1:15">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -2036,15 +2121,15 @@
         <v>52</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="29.25" customHeight="1" spans="1:14">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="29.25" customHeight="1" spans="1:15">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -2060,15 +2145,15 @@
       <c r="E19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="29.25" customHeight="1" spans="1:14">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="29.25" customHeight="1" spans="1:15">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -2079,15 +2164,15 @@
         <v>57</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="33" customHeight="1" spans="1:14">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="1:15">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -2098,15 +2183,15 @@
         <v>59</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" ht="27" customHeight="1" spans="1:14">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:15">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -2117,15 +2202,15 @@
         <v>61</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="35.25" customHeight="1" spans="1:14">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="35.25" customHeight="1" spans="1:15">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
@@ -2136,15 +2221,15 @@
         <v>63</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" ht="35.25" customHeight="1" spans="1:14">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="35.25" customHeight="1" spans="1:15">
       <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
@@ -2155,15 +2240,15 @@
         <v>65</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" ht="29.25" customHeight="1" spans="1:14">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="29.25" customHeight="1" spans="1:15">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2173,52 +2258,53 @@
       <c r="C25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" ht="29.25" customHeight="1" spans="1:14">
-      <c r="A26" s="3" t="s">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="29.25" customHeight="1" spans="1:15">
+      <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>4.08</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" ht="33" customHeight="1" spans="1:14">
+    <row r="27" ht="33" customHeight="1" spans="1:15">
       <c r="A27" s="3" t="s">
         <v>70</v>
       </c>
@@ -2228,21 +2314,21 @@
       <c r="C27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" ht="28.95" customHeight="1" spans="1:14">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="28.95" customHeight="1" spans="1:15">
       <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
@@ -2252,15 +2338,15 @@
       <c r="C28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="1:14">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="1:15">
       <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
@@ -2270,15 +2356,15 @@
       <c r="C29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" ht="27.75" customHeight="1" spans="1:14">
+    <row r="30" ht="27.75" customHeight="1" spans="1:15">
       <c r="A30" s="3" t="s">
         <v>76</v>
       </c>
@@ -2288,15 +2374,15 @@
       <c r="C30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" ht="29.25" customHeight="1" spans="1:14">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="29.25" customHeight="1" spans="1:15">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -2306,15 +2392,15 @@
       <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" ht="39" customHeight="1" spans="1:14">
+      <c r="N31" s="3"/>
+      <c r="O31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="39" customHeight="1" spans="1:15">
       <c r="A32" s="3" t="s">
         <v>79</v>
       </c>
@@ -2330,46 +2416,49 @@
       <c r="E32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" ht="39" customHeight="1" spans="1:14">
-      <c r="A33" s="3" t="s">
+      <c r="N32" s="3"/>
+      <c r="O32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" s="5" customFormat="1" ht="28" customHeight="1" spans="1:15">
+      <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>4.22</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="4"/>
+      <c r="O33" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="30" customHeight="1" spans="1:14">
+    <row r="34" ht="30" customHeight="1" spans="1:15">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -2379,21 +2468,21 @@
       <c r="C34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="3" t="s">
+      <c r="E34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" ht="36" customHeight="1" spans="1:14">
+      <c r="N34" s="3"/>
+      <c r="O34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" ht="36" customHeight="1" spans="1:15">
       <c r="A35" s="3" t="s">
         <v>85</v>
       </c>
@@ -2403,15 +2492,15 @@
       <c r="C35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="3"/>
+      <c r="O35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" ht="39.75" customHeight="1" spans="1:14">
+    <row r="36" ht="39.75" customHeight="1" spans="1:15">
       <c r="A36" s="3" t="s">
         <v>87</v>
       </c>
@@ -2421,24 +2510,24 @@
       <c r="C36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="3"/>
+      <c r="O36" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="41" customHeight="1" spans="1:14">
+    <row r="37" s="3" customFormat="1" ht="41" customHeight="1" spans="1:15">
       <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
@@ -2457,14 +2546,14 @@
       <c r="F37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1" ht="42" customHeight="1" spans="1:14">
+    <row r="38" s="5" customFormat="1" ht="42" customHeight="1" spans="1:15">
       <c r="A38" s="9" t="s">
         <v>91</v>
       </c>
@@ -2481,8 +2570,9 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
-    </row>
-    <row r="39" s="3" customFormat="1" ht="36" customHeight="1" spans="1:15">
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="36" customHeight="1" spans="1:16">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -2508,76 +2598,79 @@
         <v>92</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="31.8" customHeight="1" spans="1:14">
+      <c r="P39" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="31.8" customHeight="1" spans="1:15">
       <c r="A40" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40" s="3">
         <v>5.28</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A41" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" s="3">
         <v>6.4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A42" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B42" s="3">
         <v>6.4</v>
@@ -2588,45 +2681,45 @@
       <c r="E42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" ht="22.2" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" ht="22.2" customHeight="1" spans="1:15">
       <c r="A43" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B43" s="3">
         <v>7.6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K43" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" ht="22" customHeight="1" spans="1:14">
+        <v>105</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="22" customHeight="1" spans="1:15">
       <c r="A44" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B44" s="3">
         <v>7.6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>25</v>
@@ -2640,45 +2733,48 @@
       <c r="H44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>97</v>
+      <c r="K44" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="1:15">
       <c r="A45" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B45" s="3">
         <v>7.6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" ht="18.6" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" ht="27" customHeight="1" spans="1:15">
       <c r="A46" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B46" s="3">
         <v>7.6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>25</v>
@@ -2687,24 +2783,27 @@
         <v>25</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" ht="22.2" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="22.2" customHeight="1" spans="1:15">
       <c r="A47" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B47" s="3">
         <v>7.6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>25</v>
@@ -2712,17 +2811,23 @@
       <c r="E47" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F47" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="K47" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" s="5" customFormat="1" ht="22.8" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" s="6" customFormat="1" ht="22.8" customHeight="1" spans="1:15">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -2730,111 +2835,117 @@
         <v>7.6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>104</v>
+      <c r="L48" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" s="6" customFormat="1" ht="26" customHeight="1" spans="1:14">
-      <c r="A49" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="6">
+        <v>105</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" ht="26" customHeight="1" spans="1:15">
+      <c r="A49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="3">
         <v>7.13</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>113</v>
+      <c r="C49" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M49" s="6" t="s">
+      <c r="L49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N49" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
+      <c r="N49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A50" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B50" s="3">
         <v>7.13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" s="3" customFormat="1" ht="25" customHeight="1" spans="1:14">
-      <c r="A51" s="3" t="s">
+      <c r="L50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>7.13</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+      <c r="C51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B52" s="3">
         <v>7.13</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>25</v>
@@ -2842,23 +2953,27 @@
       <c r="F52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="G52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="M52" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -2866,27 +2981,30 @@
         <v>7.13</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+        <v>124</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A54" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B54" s="3">
         <v>7.13</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>25</v>
@@ -2897,138 +3015,141 @@
       <c r="G54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>97</v>
+      <c r="L54" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A55" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B55" s="3">
         <v>7.14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>125</v>
+      <c r="L55" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
-      <c r="A56" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A56" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="B56" s="10">
         <v>7.19</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M56" s="3" t="s">
+      <c r="C56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="M56" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O56" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+    <row r="57" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="11">
         <v>7.2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="28" customHeight="1" spans="1:15">
       <c r="A58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="10">
+        <v>132</v>
+      </c>
+      <c r="B58" s="11">
         <v>7.2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" s="3" customFormat="1" ht="18" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A59" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="10">
+        <v>133</v>
+      </c>
+      <c r="B59" s="11">
         <v>7.2</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" s="3" customFormat="1" ht="20" customHeight="1" spans="1:14">
+        <v>135</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A60" s="3" t="s">
         <v>76</v>
       </c>
@@ -3036,27 +3157,30 @@
         <v>7.27</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A61" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B61" s="3">
         <v>7.27</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>25</v>
@@ -3070,40 +3194,43 @@
       <c r="G61" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="K61" s="3" t="s">
-        <v>103</v>
+        <v>138</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" s="3" customFormat="1" ht="18" customHeight="1" spans="1:14">
+        <v>140</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="1" ht="18" customHeight="1" spans="1:15">
       <c r="A62" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B62" s="3">
         <v>7.28</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>97</v>
+        <v>141</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
@@ -3111,7 +3238,7 @@
         <v>7.28</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>25</v>
@@ -3125,17 +3252,23 @@
       <c r="G63" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="H63" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="K63" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>120</v>
+        <v>143</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" s="3" customFormat="1" ht="20" customHeight="1" spans="1:14">
+        <v>124</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" s="3" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A64" s="3" t="s">
         <v>64</v>
       </c>
@@ -3143,19 +3276,19 @@
         <v>7.28</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M64" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+        <v>105</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A65" s="3" t="s">
         <v>44</v>
       </c>
@@ -3163,25 +3296,25 @@
         <v>7.28</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="L65" s="3" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" s="3" customFormat="1" ht="25" customHeight="1" spans="1:14">
+        <v>147</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A66" s="3" t="s">
         <v>36</v>
       </c>
@@ -3189,7 +3322,7 @@
         <v>7.31</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>25</v>
@@ -3197,86 +3330,96 @@
       <c r="E66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>97</v>
+      <c r="L66" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A67" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B67" s="3">
         <v>7.31</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>147</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A68" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B68" s="3">
         <v>7.31</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M68" s="3"/>
       <c r="N68" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
+        <v>124</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" ht="25" customHeight="1" spans="1:16">
       <c r="A69" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B69" s="3">
         <v>7.31</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" s="3" customFormat="1" ht="23" customHeight="1" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="3" t="s">
         <v>62</v>
       </c>
@@ -3286,25 +3429,28 @@
       <c r="C70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M70" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+        <v>105</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A71" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B71" s="3">
         <v>8.5</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>25</v>
@@ -3312,28 +3458,28 @@
       <c r="F71" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="K71" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>97</v>
+        <v>114</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" s="3" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A72" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B72" s="3">
         <v>8.5</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>25</v>
@@ -3344,17 +3490,23 @@
       <c r="G72" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>156</v>
+      <c r="H72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+        <v>162</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A73" s="3" t="s">
         <v>66</v>
       </c>
@@ -3362,182 +3514,188 @@
         <v>8.8</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K73" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M73" s="3" t="s">
+      <c r="L73" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" s="3" customFormat="1" ht="21" customHeight="1" spans="1:14">
+        <v>105</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A74" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74" s="10">
+        <v>164</v>
+      </c>
+      <c r="B74" s="11">
         <v>8.1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+        <v>166</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A75" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="10">
+        <v>167</v>
+      </c>
+      <c r="B75" s="11">
         <v>8.1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>97</v>
+        <v>111</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" s="3" customFormat="1" ht="15" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="11">
         <v>8.1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>97</v>
+        <v>168</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B77" s="10">
+        <v>169</v>
+      </c>
+      <c r="B77" s="11">
         <v>8.1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>125</v>
+        <v>170</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+        <v>129</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A78" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="10">
+        <v>171</v>
+      </c>
+      <c r="B78" s="11">
         <v>8.1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" s="3" customFormat="1" ht="20" customHeight="1" spans="1:14">
+        <v>173</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A79" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B79" s="10">
+        <v>174</v>
+      </c>
+      <c r="B79" s="11">
         <v>8.1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>97</v>
+        <v>175</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" s="3" customFormat="1" ht="19" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A80" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B80" s="10">
+        <v>176</v>
+      </c>
+      <c r="B80" s="11">
         <v>8.1</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>97</v>
+      <c r="L80" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A81" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B81" s="10">
+        <v>177</v>
+      </c>
+      <c r="B81" s="11">
         <v>8.1</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M81" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" s="3" customFormat="1" ht="24" customHeight="1" spans="1:14">
+        <v>105</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A82" s="3" t="s">
         <v>79</v>
       </c>
@@ -3545,67 +3703,79 @@
         <v>8.11</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A83" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B83" s="3">
         <v>8.11</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>141</v>
+      <c r="L83" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+        <v>147</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" s="3" customFormat="1" ht="28" customHeight="1" spans="1:15">
       <c r="A84" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" s="3">
         <v>8.19</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>97</v>
+        <v>180</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A85" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B85" s="3">
         <v>8.19</v>
@@ -3613,100 +3783,483 @@
       <c r="C85" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K85" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>97</v>
+      <c r="D85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" s="3" customFormat="1" ht="22" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A86" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B86" s="3">
         <v>8.19</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" s="3" customFormat="1" ht="16" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A87" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B87" s="3">
         <v>8.19</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" s="3" customFormat="1" ht="27" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A88" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B88" s="3">
         <v>8.19</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" s="3" customFormat="1" ht="18" customHeight="1" spans="1:14">
+        <v>162</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A89" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B89" s="3">
         <v>8.19</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M89" s="3"/>
       <c r="N89" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" s="3" customFormat="1" ht="28" customHeight="1" spans="1:15">
+      <c r="A90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="3">
+        <v>8.22</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="3">
+        <v>8.22</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A92" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="3">
+        <v>8.22</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" s="3" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A93" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" s="3" customFormat="1" ht="26" customHeight="1" spans="1:15">
+      <c r="A94" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" s="3" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A95" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="3">
+        <v>8.26</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="3">
+        <v>8.26</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" s="3" customFormat="1" ht="26" customHeight="1" spans="1:15">
+      <c r="A97" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="3">
+        <v>8.28</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" s="3" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A99" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" s="3" customFormat="1" ht="26" customHeight="1" spans="1:15">
+      <c r="A100" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="3">
+        <v>9.2</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A101" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A102" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A103" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A104" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O104" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A38:O38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/投递记录.xlsx
+++ b/投递记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15990"/>
+    <workbookView windowHeight="18390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="204">
   <si>
     <t>实习</t>
   </si>
@@ -441,9 +441,6 @@
   </si>
   <si>
     <t>影石360</t>
-  </si>
-  <si>
-    <t>音视频组</t>
   </si>
   <si>
     <t>拓竹科技</t>
@@ -1315,7 +1312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1344,12 +1341,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1673,8 +1664,8 @@
   <sheetPr/>
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2441,7 +2432,7 @@
       <c r="F33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K33" s="4" t="s">
@@ -2733,7 +2724,7 @@
       <c r="H44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="3" t="s">
         <v>107</v>
       </c>
       <c r="L44" s="3" t="s">
@@ -3076,9 +3067,7 @@
       <c r="L56" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M56" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="M56" s="4"/>
       <c r="N56" s="4" t="s">
         <v>98</v>
       </c>
@@ -3111,7 +3100,7 @@
     </row>
     <row r="58" s="3" customFormat="1" ht="28" customHeight="1" spans="1:15">
       <c r="A58" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="11">
         <v>7.2</v>
@@ -3131,19 +3120,19 @@
     </row>
     <row r="59" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A59" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="11">
         <v>7.2</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N59" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>18</v>
@@ -3174,37 +3163,37 @@
     </row>
     <row r="61" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="3">
         <v>7.27</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K61" s="3" t="s">
+      <c r="L61" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M61" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L61" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>18</v>
@@ -3218,7 +3207,7 @@
         <v>7.28</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>104</v>
@@ -3238,25 +3227,25 @@
         <v>7.28</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>104</v>
@@ -3276,7 +3265,7 @@
         <v>7.28</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>104</v>
@@ -3296,7 +3285,7 @@
         <v>7.28</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>16</v>
@@ -3305,10 +3294,10 @@
         <v>97</v>
       </c>
       <c r="M65" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N65" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>18</v>
@@ -3322,7 +3311,7 @@
         <v>7.31</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>25</v>
@@ -3342,13 +3331,13 @@
     </row>
     <row r="67" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A67" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B67" s="3">
         <v>7.31</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>16</v>
@@ -3357,7 +3346,7 @@
         <v>104</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O67" s="3" t="s">
         <v>18</v>
@@ -3365,19 +3354,19 @@
     </row>
     <row r="68" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A68" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B68" s="3">
         <v>7.31</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>104</v>
@@ -3392,31 +3381,31 @@
     </row>
     <row r="69" s="3" customFormat="1" ht="25" customHeight="1" spans="1:16">
       <c r="A69" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="3">
         <v>7.31</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K69" s="3" t="s">
+      <c r="L69" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P69" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -3444,7 +3433,7 @@
     </row>
     <row r="71" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A71" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B71" s="3">
         <v>8.5</v>
@@ -3462,7 +3451,7 @@
         <v>114</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>98</v>
@@ -3473,34 +3462,34 @@
     </row>
     <row r="72" s="3" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A72" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B72" s="3">
         <v>8.5</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N72" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>18</v>
@@ -3514,7 +3503,7 @@
         <v>8.8</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>16</v>
@@ -3531,13 +3520,13 @@
     </row>
     <row r="74" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A74" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B74" s="11">
         <v>8.1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>16</v>
@@ -3546,7 +3535,7 @@
         <v>104</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>18</v>
@@ -3554,7 +3543,7 @@
     </row>
     <row r="75" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A75" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B75" s="11">
         <v>8.1</v>
@@ -3580,7 +3569,7 @@
         <v>8.1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>104</v>
@@ -3594,13 +3583,13 @@
     </row>
     <row r="77" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B77" s="11">
         <v>8.1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>104</v>
@@ -3614,19 +3603,19 @@
     </row>
     <row r="78" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A78" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B78" s="11">
         <v>8.1</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N78" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>18</v>
@@ -3634,13 +3623,13 @@
     </row>
     <row r="79" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A79" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B79" s="11">
         <v>8.1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>25</v>
@@ -3657,7 +3646,7 @@
     </row>
     <row r="80" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A80" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B80" s="11">
         <v>8.1</v>
@@ -3677,7 +3666,7 @@
     </row>
     <row r="81" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A81" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B81" s="11">
         <v>8.1</v>
@@ -3718,7 +3707,7 @@
         <v>104</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N82" s="3" t="s">
         <v>98</v>
@@ -3735,7 +3724,7 @@
         <v>8.11</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>16</v>
@@ -3744,7 +3733,7 @@
         <v>104</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>18</v>
@@ -3758,7 +3747,7 @@
         <v>8.19</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>16</v>
@@ -3807,7 +3796,7 @@
     </row>
     <row r="86" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A86" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B86" s="3">
         <v>8.19</v>
@@ -3827,7 +3816,7 @@
     </row>
     <row r="87" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A87" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B87" s="3">
         <v>8.19</v>
@@ -3847,13 +3836,13 @@
     </row>
     <row r="88" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A88" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B88" s="3">
         <v>8.19</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>25</v>
@@ -3865,7 +3854,7 @@
         <v>104</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>18</v>
@@ -3873,19 +3862,19 @@
     </row>
     <row r="89" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A89" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B89" s="3">
         <v>8.19</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>104</v>
@@ -3900,13 +3889,13 @@
     </row>
     <row r="90" s="3" customFormat="1" ht="28" customHeight="1" spans="1:15">
       <c r="A90" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B90" s="3">
         <v>8.22</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>104</v>
@@ -3932,7 +3921,7 @@
         <v>25</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>104</v>
@@ -3953,7 +3942,7 @@
         <v>8.22</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>25</v>
@@ -3979,7 +3968,7 @@
     </row>
     <row r="93" s="3" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A93" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B93" s="3">
         <v>8.25</v>
@@ -3999,7 +3988,7 @@
     </row>
     <row r="94" s="3" customFormat="1" ht="26" customHeight="1" spans="1:15">
       <c r="A94" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B94" s="3">
         <v>8.25</v>
@@ -4019,7 +4008,7 @@
     </row>
     <row r="95" s="3" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A95" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B95" s="3">
         <v>8.26</v>
@@ -4043,13 +4032,13 @@
     </row>
     <row r="96" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A96" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B96" s="3">
         <v>8.26</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>104</v>
@@ -4063,7 +4052,7 @@
     </row>
     <row r="97" s="3" customFormat="1" ht="26" customHeight="1" spans="1:15">
       <c r="A97" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B97" s="3">
         <v>8.28</v>
@@ -4075,14 +4064,14 @@
         <v>25</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>104</v>
       </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>18</v>
@@ -4096,7 +4085,7 @@
         <v>8.31</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>25</v>
@@ -4119,7 +4108,7 @@
         <v>8.31</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>25</v>
@@ -4137,19 +4126,19 @@
     </row>
     <row r="100" s="3" customFormat="1" ht="26" customHeight="1" spans="1:15">
       <c r="A100" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B100" s="3">
         <v>9.2</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>18</v>
@@ -4163,7 +4152,7 @@
         <v>9.4</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>25</v>
@@ -4186,13 +4175,13 @@
     </row>
     <row r="102" s="3" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A102" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B102" s="11">
         <v>9.1</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>16</v>
@@ -4209,7 +4198,7 @@
     </row>
     <row r="103" s="3" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A103" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B103" s="11">
         <v>9.1</v>
@@ -4238,19 +4227,19 @@
     </row>
     <row r="104" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A104" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B104" s="3">
         <v>9.1</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>18</v>
